--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3780" yWindow="2480" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
@@ -51,76 +51,58 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>stoneCarving</t>
+  </si>
+  <si>
+    <t>forestation</t>
+  </si>
+  <si>
     <t>fastFix</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironSmelting</t>
+  </si>
+  <si>
+    <t>cropResearch</t>
   </si>
   <si>
     <t>reinforcing</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>seniorTower</t>
+  </si>
+  <si>
+    <t>beerSupply</t>
   </si>
   <si>
     <t>rescueTent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>colonization</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>negotiation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneCarving</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironSmelting</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>seniorTower</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>trap</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>hideout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>logistics</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>forestation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>cropResearch</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>beerSupply</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>healingAgent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>sketching</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>mintedCoin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>crane</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -263,6 +245,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -460,7 +479,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +488,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,7 +1140,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1141,308 +1169,308 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.05</v>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2480" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="1200" yWindow="5200" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>mintedCoin</t>
+  </si>
+  <si>
+    <t>INT_academyLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -298,6 +302,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -500,7 +510,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="196">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -598,6 +608,9 @@
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -688,6 +701,9 @@
     <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1137,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1148,7 +1164,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1162,12 +1178,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1181,10 +1200,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+    <row r="3" spans="1:8" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1195,13 +1217,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1215,10 +1240,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1229,13 +1257,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1246,13 +1277,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1263,13 +1297,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1280,13 +1317,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1297,13 +1337,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1314,13 +1357,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1331,13 +1377,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1348,13 +1397,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1365,13 +1417,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1382,13 +1437,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1399,13 +1457,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1416,13 +1477,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1433,13 +1497,16 @@
         <v>13</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1450,13 +1517,16 @@
         <v>14</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1467,10 +1537,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6">
-        <v>0.01</v>
+        <v>32</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="5200" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="11480" yWindow="4580" windowWidth="38400" windowHeight="21140" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -287,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -302,6 +302,76 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -510,14 +580,145 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="266">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -611,102 +812,41 @@
     <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1156,7 +1296,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1388,7 +1528,7 @@
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -1408,7 +1548,7 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -1428,7 +1568,7 @@
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -1468,7 +1608,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -1488,7 +1628,7 @@
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -1508,7 +1648,7 @@
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="4580" windowWidth="38400" windowHeight="21140" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -287,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="266">
+  <cellStyleXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -302,6 +302,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,17 +582,143 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="266">
+  <cellStyles count="268">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
-    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -719,134 +847,10 @@
     <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1357,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1383,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1397,13 +1401,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
         <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1417,13 +1421,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1437,13 +1441,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1457,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>10</v>
@@ -1477,7 +1481,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
         <v>14</v>
@@ -1497,13 +1501,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <v>12</v>
       </c>
       <c r="F10" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1517,13 +1521,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6">
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -1537,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6">
         <v>24</v>
@@ -1557,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6">
         <v>30</v>
@@ -1577,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6">
         <v>20</v>
@@ -1597,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6">
         <v>26</v>
@@ -1617,13 +1621,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="6">
         <v>28</v>
       </c>
       <c r="F16" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1637,13 +1641,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6">
         <v>18</v>
       </c>
       <c r="F17" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -1657,13 +1661,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6">
         <v>22</v>
       </c>
       <c r="F18" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -1677,13 +1681,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6">
         <v>32</v>
       </c>
       <c r="F19" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1507,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -90,22 +90,23 @@
     <t>trap</t>
   </si>
   <si>
+    <t>logistics</t>
+  </si>
+  <si>
+    <t>healingAgent</t>
+  </si>
+  <si>
+    <t>sketching</t>
+  </si>
+  <si>
+    <t>mintedCoin</t>
+  </si>
+  <si>
+    <t>INT_academyLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>hideout</t>
-  </si>
-  <si>
-    <t>logistics</t>
-  </si>
-  <si>
-    <t>healingAgent</t>
-  </si>
-  <si>
-    <t>sketching</t>
-  </si>
-  <si>
-    <t>mintedCoin</t>
-  </si>
-  <si>
-    <t>INT_academyLevel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1301,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A17" sqref="A17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1322,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1552,7 +1553,7 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -1592,7 +1593,7 @@
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -1612,7 +1613,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -1647,12 +1648,12 @@
         <v>18</v>
       </c>
       <c r="F17" s="4">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -1672,7 +1673,7 @@
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="16800" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>colonization</t>
   </si>
   <si>
-    <t>negotiation</t>
-  </si>
-  <si>
     <t>trap</t>
   </si>
   <si>
@@ -107,6 +104,10 @@
   </si>
   <si>
     <t>hideout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruitment</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1301,7 +1302,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1323,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
@@ -1528,12 +1529,12 @@
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -1553,7 +1554,7 @@
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -1593,7 +1594,7 @@
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -1613,7 +1614,7 @@
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -1633,7 +1634,7 @@
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -1648,12 +1649,12 @@
         <v>18</v>
       </c>
       <c r="F17" s="4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -1668,12 +1669,12 @@
         <v>22</v>
       </c>
       <c r="F18" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1900" yWindow="2860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="268">
+  <cellStyleXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,7 +586,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="268">
+  <cellStyles count="270">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -721,6 +723,7 @@
     <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -850,6 +853,7 @@
     <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1302,7 +1306,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1545,8 +1549,8 @@
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="6">
-        <v>24</v>
+      <c r="E12" s="1">
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>0.01</v>
@@ -1565,8 +1569,8 @@
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="6">
-        <v>30</v>
+      <c r="E13" s="1">
+        <v>18</v>
       </c>
       <c r="F13" s="4">
         <v>0.01</v>
@@ -1585,8 +1589,8 @@
       <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="6">
-        <v>20</v>
+      <c r="E14" s="1">
+        <v>24</v>
       </c>
       <c r="F14" s="4">
         <v>0.01</v>
@@ -1605,7 +1609,7 @@
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
         <v>26</v>
       </c>
       <c r="F15" s="4">
@@ -1625,8 +1629,8 @@
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="6">
-        <v>28</v>
+      <c r="E16" s="1">
+        <v>22</v>
       </c>
       <c r="F16" s="4">
         <v>0.01</v>
@@ -1645,8 +1649,8 @@
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
-        <v>18</v>
+      <c r="E17" s="1">
+        <v>30</v>
       </c>
       <c r="F17" s="4">
         <v>0.01</v>
@@ -1665,8 +1669,8 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="6">
-        <v>22</v>
+      <c r="E18" s="1">
+        <v>28</v>
       </c>
       <c r="F18" s="4">
         <v>0.02</v>
@@ -1685,7 +1689,7 @@
       <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="1">
         <v>32</v>
       </c>
       <c r="F19" s="4">

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="2860" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="2760" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="productionTechs" sheetId="27" r:id="rId1"/>
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="270">
+  <cellStyleXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,7 +598,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="270">
+  <cellStyles count="282">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -724,6 +736,12 @@
     <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -854,6 +872,12 @@
     <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1306,7 +1330,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1353,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1">
@@ -1373,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1393,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1413,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" customHeight="1">
@@ -1433,7 +1457,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1453,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1473,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" customHeight="1">
@@ -1493,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" customHeight="1">
@@ -1513,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" customHeight="1">
@@ -1533,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" customHeight="1">
@@ -1553,7 +1577,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" customHeight="1">
@@ -1573,7 +1597,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">
@@ -1593,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" customHeight="1">
@@ -1613,7 +1637,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" customHeight="1">
@@ -1633,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1653,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -1673,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="F18" s="4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -1693,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -598,7 +600,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="284">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -742,6 +744,7 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -878,6 +881,7 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1330,7 +1334,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1597,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" customHeight="1">

--- a/datas/shared/ProductionTechs.xlsx
+++ b/datas/shared/ProductionTechs.xlsx
@@ -289,7 +289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="284">
+  <cellStyleXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -304,6 +304,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,7 +614,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="284">
+  <cellStyles count="298">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -745,6 +759,13 @@
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -882,6 +903,13 @@
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1334,7 +1362,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1400,8 +1428,8 @@
       <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F3" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1">
@@ -1420,8 +1448,8 @@
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F4" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1">
@@ -1460,8 +1488,8 @@
       <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F6" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" customHeight="1">
@@ -1480,8 +1508,8 @@
       <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F7" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" customHeight="1">
@@ -1660,8 +1688,8 @@
       <c r="E16" s="1">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F16" s="1">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -1720,8 +1748,8 @@
       <c r="E19" s="1">
         <v>32</v>
       </c>
-      <c r="F19" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="F19" s="1">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
